--- a/figs/excel_result.xlsx
+++ b/figs/excel_result.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
   <si>
     <t>ICSI-meeting</t>
   </si>
@@ -95,13 +95,52 @@
     <t>0.5xN</t>
   </si>
   <si>
-    <t>explore(0.2)</t>
-  </si>
-  <si>
     <t>AMI</t>
   </si>
   <si>
     <t>Baseline (0.2)</t>
+  </si>
+  <si>
+    <t>Active Learning Algorithm I (0.2xN)</t>
+  </si>
+  <si>
+    <t>Active Learning Algorithm I + II (0.2xN)</t>
+  </si>
+  <si>
+    <t>IS1000a</t>
+  </si>
+  <si>
+    <t>IS1001a</t>
+  </si>
+  <si>
+    <t>IS1001b</t>
+  </si>
+  <si>
+    <t>IS1001c</t>
+  </si>
+  <si>
+    <t>IS1003b</t>
+  </si>
+  <si>
+    <t>IS1003d</t>
+  </si>
+  <si>
+    <t>IS1006b</t>
+  </si>
+  <si>
+    <t>IS1006d</t>
+  </si>
+  <si>
+    <t>IS1008a</t>
+  </si>
+  <si>
+    <t>IS1008b</t>
+  </si>
+  <si>
+    <t>IS1008c</t>
+  </si>
+  <si>
+    <t>IS1008d</t>
   </si>
 </sst>
 </file>
@@ -4006,6 +4045,587 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Baseline</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exp1'!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>IS1000a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IS1001a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>IS1001b</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IS1001c</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>IS1003b</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>IS1003d</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IS1006b</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>IS1006d</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IS1008a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>IS1008b</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>IS1008c</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>IS1008d</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exp1'!$B$3:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Active Learning Based Speaker Clustering (0.2xN)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exp1'!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>IS1000a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IS1001a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>IS1001b</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IS1001c</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>IS1003b</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>IS1003d</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IS1006b</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>IS1006d</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IS1008a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>IS1008b</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>IS1008c</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>IS1008d</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exp1'!$C$3:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Active Learning Based Speaker Clustering (0.2xN) + Active Learning Based Cluster Reassignment (0.2xN)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exp1'!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>IS1000a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IS1001a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>IS1001b</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IS1001c</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>IS1003b</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>IS1003d</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IS1006b</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>IS1006d</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IS1008a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>IS1008b</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>IS1008c</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>IS1008d</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exp1'!$D$3:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="283"/>
+        <c:overlap val="-37"/>
+        <c:axId val="-1956607904"/>
+        <c:axId val="-1276020096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1956607904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="-50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1276020096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1276020096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>DER (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1956607904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="500" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4246,6 +4866,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -6763,6 +7423,509 @@
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7441,6 +8604,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8974,16 +10167,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B67" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="38.1640625" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9000,103 +10193,178 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
       <c r="B3" s="2">
         <v>6.08</v>
       </c>
       <c r="C3">
         <v>7.71</v>
       </c>
+      <c r="D3">
+        <v>2.71</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
       <c r="B4" s="2">
         <v>31.33</v>
       </c>
       <c r="C4">
         <v>19.16</v>
       </c>
+      <c r="D4">
+        <v>16.739999999999998</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
       <c r="B5" s="2">
         <v>7.48</v>
       </c>
       <c r="C5">
         <v>2.34</v>
       </c>
+      <c r="D5">
+        <v>1.34</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
       <c r="B6" s="2">
         <v>2.38</v>
       </c>
       <c r="C6">
         <v>5.09</v>
       </c>
+      <c r="D6">
+        <v>4.62</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
       <c r="B7" s="2">
         <v>28.05</v>
       </c>
       <c r="C7">
         <v>2.19</v>
       </c>
+      <c r="D7">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
       <c r="B8" s="2">
         <v>32.200000000000003</v>
       </c>
       <c r="C8">
         <v>19.829999999999998</v>
       </c>
+      <c r="D8">
+        <v>17.11</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
       <c r="B9" s="2">
         <v>1.81</v>
       </c>
       <c r="C9">
         <v>1.8</v>
       </c>
+      <c r="D9">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
       <c r="B10" s="2">
         <v>13.02</v>
       </c>
       <c r="C10">
         <v>10.050000000000001</v>
       </c>
+      <c r="D10">
+        <v>6.72</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
       <c r="B11" s="2">
         <v>1.35</v>
       </c>
       <c r="C11">
         <v>0.64</v>
       </c>
+      <c r="D11">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
       <c r="B12" s="2">
         <v>1.03</v>
       </c>
       <c r="C12">
         <v>2.25</v>
       </c>
+      <c r="D12">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
       <c r="B13" s="2">
         <v>3.07</v>
       </c>
       <c r="C13">
         <v>1.29</v>
       </c>
+      <c r="D13">
+        <v>1.1100000000000001</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
       <c r="B14" s="2">
         <v>2.25</v>
       </c>
       <c r="C14">
         <v>1.47</v>
+      </c>
+      <c r="D14">
+        <v>0.37</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9562,7 +10830,7 @@
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>1</v>
@@ -9647,7 +10915,7 @@
     <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8"/>
       <c r="B47" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="9"/>

--- a/figs/excel_result.xlsx
+++ b/figs/excel_result.xlsx
@@ -4385,6 +4385,7 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4393,7 +4394,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="283"/>
-        <c:overlap val="-37"/>
+        <c:overlap val="-28"/>
         <c:axId val="-1956607904"/>
         <c:axId val="-1276020096"/>
       </c:barChart>
@@ -4426,7 +4427,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="-50" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -4455,12 +4456,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4473,7 +4469,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -4483,7 +4479,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600" baseline="0">
+                  <a:rPr lang="en-US" sz="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -4507,7 +4503,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -10168,7 +10164,7 @@
   <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
